--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2551.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2551.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.196525471374684</v>
+        <v>1.981889843940735</v>
       </c>
       <c r="B1">
-        <v>1.926751067591903</v>
+        <v>2.045217990875244</v>
       </c>
       <c r="C1">
-        <v>4.346126301644546</v>
+        <v>7.791342258453369</v>
       </c>
       <c r="D1">
-        <v>1.668342774585603</v>
+        <v>0.9854145646095276</v>
       </c>
       <c r="E1">
-        <v>0.9025691318753092</v>
+        <v>0.4802484512329102</v>
       </c>
     </row>
   </sheetData>
